--- a/data/관련주식정보_top100.xlsx
+++ b/data/관련주식정보_top100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="178">
   <si>
     <t>뉴스 제목</t>
   </si>
@@ -34,7 +34,7 @@
     <t>배터리, 전기차 선택 기준으로 우뚝… 中 CATL, 오프라인 매장 출격</t>
   </si>
   <si>
-    <t>난카이 대지진' 걱정되지만…"일본 여행 예정대로 갑니다"</t>
+    <t>'난카이 대지진' 걱정되지만…"일본 여행 예정대로 갑니다"</t>
   </si>
   <si>
     <t>101살 낡은 회사 아니다… "'원 디즈니' 빅테크 협업 마다 않아"</t>
@@ -163,7 +163,7 @@
     <t>고팍스, 전북은행과 실명계좌 재계약</t>
   </si>
   <si>
-    <t>위기의 엔씨' 해외법인 자회사 리더십 개편..."성장 동력 마련"</t>
+    <t>'위기의 엔씨' 해외법인 자회사 리더십 개편..."성장 동력 마련"</t>
   </si>
   <si>
     <t>엔씨소프트, 엔씨아메리카 등 해외법인 대표 교체...윤송이·김택헌 직책 내려놔</t>
@@ -241,7 +241,7 @@
     <t>인스웨이브시스템즈, 삼성증권 '전산시스템' 웹 전환 수주</t>
   </si>
   <si>
-    <t>소프트웨어 연구실 최대 관심사' 과기부 SW스타랩 10곳 선정</t>
+    <t>'소프트웨어 연구실 최대 관심사' 과기부 SW스타랩 10곳 선정</t>
   </si>
   <si>
     <t>인스웨이브시스템즈, 삼성증권과 89억 규모 공급계약 체결</t>
@@ -334,22 +334,30 @@
     <t>CATL</t>
   </si>
   <si>
+    <t>일본산 업체 소속 주식으로 본 기사와 가장 관련된 주식 종목은  'N/A' 만을 반환합니다.
+다만 뉴스에서 언급되어 있는 대지진 가능성의 여부는 객관적인 사실보다는 일본 정부와 기상청이 발표한 통계적 가능성으로 이해해야 합니다. 주식 투자는 개인에게 책임 있게 결정을 내려야 하는 중요한 문제입니다.</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>N/A 
+주어진 뉴스 기사는 남중국해 국경 분쟁에 대한 필리핀과 베트남 간의 해상 합동 훈련을 다루고 있습니다.  두 나라는 주목 사항은 인접한 영역에서 발생하는 이러한 외교적 접근 방식이기에 관련된 주식종목 추출에 적합하지 않습니다.</t>
+  </si>
+  <si>
+    <t>FED</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>FED</t>
-  </si>
-  <si>
     <t>삼성전자</t>
   </si>
   <si>
     <t>벤츠</t>
   </si>
   <si>
-    <t>Uber</t>
+    <t>uber</t>
   </si>
   <si>
     <t>AAPL</t>
@@ -358,142 +366,131 @@
     <t>GOOGL</t>
   </si>
   <si>
-    <t>NC스oft</t>
-  </si>
-  <si>
-    <t>KakaoMobility</t>
+    <t>एनसी소फ्ट</t>
+  </si>
+  <si>
+    <t>카카오모빌리티</t>
   </si>
   <si>
     <t>엔씨소프트</t>
   </si>
   <si>
-    <t>LS전선</t>
+    <t>N/A 
+뉴스 기사에서는 대구 가톨릭대학교에서 진행된 SW·AI 활용 관련 현직 교사 연수에 대한 내용이 언급되어 있어 종목추천이 어렵습니다.</t>
+  </si>
+  <si>
+    <t>LS</t>
   </si>
   <si>
     <t>셀트리온</t>
   </si>
   <si>
-    <t>에스엘에스바이오</t>
-  </si>
-  <si>
-    <t>NCCO</t>
+    <t>블루엠텍</t>
   </si>
   <si>
     <t>N/A 
- 뉴스 기사에 나온 정보로 종목명을 정할 수 없습니다.</t>
-  </si>
-  <si>
-    <t>NMBL</t>
-  </si>
-  <si>
-    <t>CUEN</t>
-  </si>
-  <si>
-    <t>nvidia</t>
-  </si>
-  <si>
-    <t>세창테크</t>
-  </si>
-  <si>
-    <t>GOPAX</t>
+## 분석:
+기사는 엔씨소프트 해외 자회사 인사 개편에 대해 다루고 있습니다. 특히 새롭게 영입된 대표인 진정희의 역할과 업무 개요가 주로 소개됩니다.  그러나 기사 문맥상 주식 투자를 격려하거나 특정 종목을 추천하는 내용은 없습니다.</t>
+  </si>
+  <si>
+    <t>큐텐</t>
+  </si>
+  <si>
+    <t>엔비디아</t>
   </si>
   <si>
     <t>N/A 
- 뉴스 기사에서는 GPS 기술을 활용한  새로운 위치 확인 시스템 개발에 대한 내용이며, 구체적인 주식종목에 대한 언급은 없습니다. 따라서 관련 주식 종목은 없다고 판단합니다.</t>
-  </si>
-  <si>
-    <t>티오리</t>
-  </si>
-  <si>
-    <t>삼성</t>
+**참고**: 주성문에서 언급된 정보만을 바탕으로, 뉴스와 가장 관련있는 주식종목은 찾기 어렵습니다.</t>
+  </si>
+  <si>
+    <t>고팍스</t>
+  </si>
+  <si>
+    <t>N/A 
+ 뉴스에 언급된 기술은 주식 시장과 직접적인 관련성이 없는 분야입니다.  무선 인프라 없이 작동하는 실내외 GPS 시스템 기술은 미래에는  다양한 산업군에 적용될 수 있겠지만 , 현재는 주식 투자의 대상으로 보기 어렵습니다.</t>
+  </si>
+  <si>
+    <t>TIO리</t>
   </si>
   <si>
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
+    <t>KRICT</t>
+  </si>
+  <si>
+    <t>N/A 
+무선 신호 없이 작동하는 실내외 위치 추적 기술 관련 기사이므로 주식 시장에서 직접적인 연관성을 가지는 종목이 명확하지 않습니다.  카이스트, 건축, IoT 등과 관련된 분야 기업들을 생각할 수 있지만 뉴스에 특정한 회사나 기술 개발자 정보가 없으므로 정확히 어떤 주식으로 추측하는 것이 적절한지는 불명확합니다.</t>
+  </si>
+  <si>
     <t>XRP</t>
   </si>
   <si>
-    <t>한국화학연구원  - KERI</t>
+    <t>한국화학연구원</t>
+  </si>
+  <si>
+    <t>에이스토리</t>
   </si>
   <si>
     <t>N/A 
-이 뉴스 기사에서 주식종목으로 언급된 내용은 없고, 기술 개발 과정 및 해당 분야에 대한 정보만 제공하고 있습니다.</t>
-  </si>
-  <si>
-    <t>에이스토리 주식의 한국 증권 코드를 제공하면 그 주식종목명을 알 수 있습니다.  
-하지만 뉴스 기사에서 에이스토리 관련하여 전기적으로 주식 정보가 제공되지 않아 종목명만 출력할 수 없다. 
-뉴스에는 "에이스토리는 설립 20주년을 맞이하는 콘텐츠 제작사로, K콘텐츠 첫 대표 격인 '킹덤'" 이르고 나중에  "...'모자왕', '악이 우글거리는 강가에서' 등 차기작의 시놉시스를 녹인 AI 콘텐츠를 공개.." 라고 서술되어 있습니다.
-다만, 뉴스 기사 자체에서는 에이스토리 주식 종목명을 명시하지 않고 있습니다.</t>
+뉴스에는 SW스타랩 사업 관련 정보만 담겨있으며 특정 회사주식은 언급되어 있지 않습니다.</t>
+  </si>
+  <si>
+    <t>국방산업 관련 종목으로, 뉴스 내용에서 언급된 과학기술전문사관 프로그램에 참여하는 인재들은 국방과학연구소와 같은 국방 연구개발 기관에서 근무한다는 점을 고려해 보면  **한화중공업**:  주식종목명만 반환</t>
+  </si>
+  <si>
+    <t>펄어비스</t>
+  </si>
+  <si>
+    <t>BoB</t>
+  </si>
+  <si>
+    <t>BOK</t>
+  </si>
+  <si>
+    <t>NETGEM</t>
+  </si>
+  <si>
+    <t>티머니</t>
+  </si>
+  <si>
+    <t>NAVER</t>
+  </si>
+  <si>
+    <t>우리은행</t>
+  </si>
+  <si>
+    <t>ADD</t>
   </si>
   <si>
     <t>N/A 
-뉴스 기사에서는 SW 스타랩 사업에 대한 정보를 제공하며, 몇 개의 대학교들이 선정되었다는 점만 언급하고 있습니다. 구체적인 주식 종목과의 연관성이 명확하지 않습니다. 따라서 N/A 그로 판단됩니다.</t>
-  </si>
-  <si>
-    <t>**국방과학연구소 (ADD)** 
-**참고:** 뉴스 기사는 국방과학연구소(ADD)에서 연구개발을 수행하는 과제와 관련된 정보를 담고 있어,  추출 결과 '국방과학연구소'가 주식 종목과 가장 관련이 있습니다.</t>
-  </si>
-  <si>
-    <t>펄어비스</t>
-  </si>
-  <si>
-    <t>N/A
-뉴스는  AI, 클라우드, 알고리즘, 응용SW 분야의 연구실 지원과 관련되어 있습니다. 특정 기업을 언급하지 않고 학계 연구 프로젝트에 초점이 맞춰져 있어 주식종목추천이 어렵습니다.</t>
-  </si>
-  <si>
-    <t>NETMAPLE NETF</t>
-  </si>
-  <si>
-    <t>티머니 🚀</t>
-  </si>
-  <si>
-    <t>N/A 
-뉴스에서는 그린란드의 과거 기후 변화에 대한 연구가 다뤄지며, 특히 북극 양귀비 등 튤란드 지역에서 자라는 식물 화석이 발견되었다는 내용을 담고 있습니다. 따라서 주식 시장과 직접적인 연관성을 보이는 종목은 드러납니다.</t>
-  </si>
-  <si>
-    <t>NAVER</t>
-  </si>
-  <si>
-    <t>우리금융</t>
-  </si>
-  <si>
-    <t>ADD</t>
-  </si>
-  <si>
-    <t>Korea Research Institute of Chemical Technology (KRICT)</t>
-  </si>
-  <si>
-    <t>MVRDV</t>
-  </si>
-  <si>
-    <t>N/A 
-요청하는 해시그 검색으로 관련 주식종목을 찾지 못했습니다. 관련 뉴스 기사를  확인해도 천문학 또는 우주 관련 기업이나 서비스 제공 업체와 직접적인 연결 관계가 드러나지 않았습니다. 유성우의 원인으로 언급된 스위프트-터틀 혜성과 같은 단순한 학술적 개념은 주식 시장에 영향을 미치는 요소로 간주되지 않습니다.</t>
+뉴스 기사에는 천문학적인 현상에 대한 내용만 나오는데, 주식 투자와 직접적으로 관련된 정보는 없습니다.   مرئيه, 스위프트-터틀 과 같은 항목도 주식종목이 아니므로 관련 없다는 결론임</t>
   </si>
   <si>
     <t>메디톡스</t>
   </si>
   <si>
-    <t>N/A 
-## 분석
-제공된 뉴스 기사는 데프콘 해킹 대회에서 한국팀의 우승에 초점을 맞추고 있습니다. 주식 시장과 직접적인 연관성이 드러나지 않으려면  보안 기술, 정보통신 산업 관련 기업들의 주스 를 고려해야 합니다. 그러나 뉴스 기사 자체에서는 알 수 없는 바람직한 투자 전략이나 특정 기업 명칭 부터 추론하기 어렵습니다.</t>
-  </si>
-  <si>
     <t>005930</t>
   </si>
   <si>
     <t>036570</t>
   </si>
   <si>
+    <t>006260</t>
+  </si>
+  <si>
     <t>068270</t>
   </si>
   <si>
-    <t>246250</t>
+    <t>439580</t>
   </si>
   <si>
     <t>450520</t>
   </si>
   <si>
+    <t>241840</t>
+  </si>
+  <si>
     <t>263750</t>
   </si>
   <si>
@@ -509,15 +506,21 @@
     <t>191,800</t>
   </si>
   <si>
+    <t>108,200</t>
+  </si>
+  <si>
     <t>199,000</t>
   </si>
   <si>
-    <t>4,400</t>
+    <t>21,100</t>
   </si>
   <si>
     <t>3,825</t>
   </si>
   <si>
+    <t>7,030</t>
+  </si>
+  <si>
     <t>33,750</t>
   </si>
   <si>
@@ -533,13 +536,19 @@
     <t>4,300</t>
   </si>
   <si>
+    <t>-3,500</t>
+  </si>
+  <si>
     <t>-2,500</t>
   </si>
   <si>
-    <t>430</t>
+    <t>2,550</t>
   </si>
   <si>
     <t>-130</t>
+  </si>
+  <si>
+    <t>-190</t>
   </si>
   <si>
     <t>-1,000</t>
@@ -937,13 +946,13 @@
         <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -954,13 +963,13 @@
         <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -971,13 +980,13 @@
         <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -985,16 +994,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1002,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1019,16 +1028,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1036,16 +1045,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
         <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1053,16 +1062,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
         <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1070,16 +1079,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1087,16 +1096,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1104,16 +1113,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
         <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1121,16 +1130,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1138,16 +1147,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1155,16 +1164,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1172,16 +1181,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1189,16 +1198,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1206,16 +1215,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
         <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1223,16 +1232,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1240,16 +1249,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1257,16 +1266,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1274,16 +1283,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1291,16 +1300,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1308,16 +1317,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E24" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1325,16 +1334,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1342,16 +1351,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1359,16 +1368,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1376,16 +1385,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1393,16 +1402,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1410,16 +1419,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1427,16 +1436,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1444,16 +1453,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1461,16 +1470,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1478,16 +1487,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1495,16 +1504,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1512,16 +1521,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1529,16 +1538,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1546,16 +1555,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1563,16 +1572,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
         <v>158</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1580,16 +1589,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
         <v>159</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1597,16 +1606,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1614,16 +1623,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1631,16 +1640,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
         <v>158</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1648,16 +1657,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1665,16 +1674,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1682,16 +1691,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
         <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1699,16 +1708,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
         <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1716,16 +1725,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1733,16 +1742,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1750,16 +1759,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1767,16 +1776,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
         <v>158</v>
       </c>
       <c r="E51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1784,16 +1793,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
         <v>159</v>
       </c>
       <c r="E52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1801,16 +1810,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
         <v>158</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1818,16 +1827,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1835,16 +1844,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1852,16 +1861,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1872,13 +1881,13 @@
         <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1886,16 +1895,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
         <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1903,16 +1912,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1920,16 +1929,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1937,16 +1946,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1954,16 +1963,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1971,16 +1980,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1988,16 +1997,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2005,16 +2014,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E65" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2022,16 +2031,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="E66" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2039,16 +2048,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2056,16 +2065,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2073,16 +2082,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2090,16 +2099,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C70" t="s">
         <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E70" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2110,13 +2119,13 @@
         <v>130</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E71" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2124,16 +2133,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E72" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2144,13 +2153,13 @@
         <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E73" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2158,16 +2167,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E74" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2175,16 +2184,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D75" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2192,16 +2201,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E76" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2209,16 +2218,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2226,16 +2235,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2243,16 +2252,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D79" t="s">
         <v>159</v>
       </c>
       <c r="E79" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2260,16 +2269,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2277,16 +2286,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2294,16 +2303,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C82" t="s">
         <v>156</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E82" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2311,16 +2320,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2331,13 +2340,13 @@
         <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D84" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E84" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2345,16 +2354,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2362,16 +2371,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D86" t="s">
         <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2379,16 +2388,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2396,16 +2405,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2413,16 +2422,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2430,16 +2439,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2447,16 +2456,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="C91" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2464,16 +2473,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" t="s">
         <v>157</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2481,16 +2490,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D93" t="s">
         <v>158</v>
       </c>
       <c r="E93" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2498,16 +2507,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D94" t="s">
         <v>158</v>
       </c>
       <c r="E94" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2515,16 +2524,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C95" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E95" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2532,16 +2541,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D96" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E96" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2549,16 +2558,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D97" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E97" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2566,16 +2575,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D98" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E98" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2583,16 +2592,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="E99" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2600,16 +2609,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C100" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="D100" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="E100" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2617,16 +2626,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C101" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D101" t="s">
         <v>158</v>
       </c>
       <c r="E101" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
